--- a/docs/leadas_06/szk_1.xlsx
+++ b/docs/leadas_06/szk_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Space-Miner\docs\leadas_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Space-Miner\docs\leadas_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEA5479-6AF5-4D26-9BDF-E8611FDECA41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D8B64-E52B-4F2F-A800-C564E0C526DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -556,10 +556,56 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -602,55 +648,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,18 +1389,18 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,11 +1412,11 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,12 +1428,12 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1447,57 +1447,57 @@
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,10 +1512,10 @@
       <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1523,10 +1523,10 @@
       <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,10 +1534,10 @@
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,11 +1584,11 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,28 +1600,28 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="10"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="10" t="s">
         <v>50</v>
       </c>
@@ -1629,36 +1629,36 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="10"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,19 +1670,19 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="10" t="s">
         <v>50</v>
       </c>
@@ -1690,44 +1690,44 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="10"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="10"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="10"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="10" t="s">
         <v>50</v>
       </c>
@@ -1735,36 +1735,36 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="10"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,19 +1776,19 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="10" t="s">
         <v>50</v>
       </c>
@@ -1796,44 +1796,44 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="10"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="10"/>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="10"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="10" t="s">
         <v>50</v>
       </c>
@@ -1841,36 +1841,36 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="10"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1882,19 +1882,19 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="40"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="10" t="s">
         <v>50</v>
       </c>
@@ -1902,44 +1902,44 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="10"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="27"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="10"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="27"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="10"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="30"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="40"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="10" t="s">
         <v>50</v>
       </c>
@@ -1947,36 +1947,36 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="27"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="10"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,19 +1988,19 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="40"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="10" t="s">
         <v>50</v>
       </c>
@@ -2008,54 +2008,54 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="10"/>
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="27"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="10"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="27"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="10"/>
       <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="30"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="44"/>
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="50"/>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,11 +2074,11 @@
     </row>
     <row r="81" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,9 +2097,9 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="17"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,16 +2322,48 @@
   </sheetData>
   <sheetProtection password="8E55" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="65">
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -2344,49 +2376,17 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
